--- a/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_event.xlsx
+++ b/Traduzido/PTBR/Lang/PTBR/Dialog/Drama/_event.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Dialog\Drama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isy\Documents\GitHub\elin-portugues-brasileiro\Traduzido\PTBR\Lang\PTBR\Dialog\Drama\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B50ADA6-FA2A-4495-B588-8E689F5863D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4ED711-933D-4E05-B0C3-E82253407C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>神に刃を向ける愚か者は、そこのお前か？</t>
   </si>
   <si>
-    <t>So, you're the fool who dares raise a blade against a god?</t>
-  </si>
-  <si>
     <t>見ていたぞ、一部始終をな。
 解き放たれた魂たちの哀れな叫びは
 なかなかに楽しい調べであった。</t>
@@ -264,28 +261,10 @@
 いつか必ず、その剣を奪いに戻ってくるぞ！</t>
   </si>
   <si>
-    <t>Remember this, mortal.
-I shall surely return to take back that sword!</t>
-  </si>
-  <si>
     <t>1,white</t>
   </si>
   <si>
-    <t>"...A espada," "Minha espada..."
-Ha! Ha! Ha! Que lamentações deploráveis!</t>
-  </si>
-  <si>
-    <t>Meros mortais,
-Não, insignificantes insetos,
-Suas espadas irão me servir eternamente.</t>
-  </si>
-  <si>
     <t>Então, você é o tolo que ousa levantar uma lâmina contra um deus?</t>
-  </si>
-  <si>
-    <t>Eu estive observando, a cada momento._x000D_
-Os gritos miseráveis das almas libertadas_x000D_
-Foram uma melodia bastante agradável aos meus ouvidos.</t>
   </si>
   <si>
     <t>Muito bem, inseto, vou te agradar._x000D_
@@ -297,6 +276,27 @@
   <si>
     <t>Lembre-se disso, mortal._x000D_
 Eu certamente retornarei para tomar de volta aquela espada!</t>
+  </si>
+  <si>
+    <t>"... A espada," "Minha espada..."
+Ha! Ha! Ha! Que lamentações deploráveis!</t>
+  </si>
+  <si>
+    <t>Meros mortais,
+Não, insetos insignificantes,
+Suas espadas me servirão eternamente.</t>
+  </si>
+  <si>
+    <t>Então, você é o tolo que se atreve a levantar uma espada contra um Deus?</t>
+  </si>
+  <si>
+    <t>Eu estava observando, a todo momento.
+Os gritos lamentáveis das almas libertadas
+eram uma melodia deliciosa para meus ouvidos.</t>
+  </si>
+  <si>
+    <t>Lembre-se disso, mortal.
+Eu certamente voltarei para pegar essa espada de volta!</t>
   </si>
 </sst>
 </file>
@@ -610,9 +610,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IW235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -624,7 +624,7 @@
     <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="8" width="6.7109375" customWidth="1"/>
     <col min="9" max="9" width="62.140625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="63" style="1" customWidth="1"/>
+    <col min="10" max="10" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="61.140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:257" s="5" customFormat="1" ht="49.5">
+    <row r="30" spans="1:257" s="5" customFormat="1" ht="33">
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30"/>
@@ -874,7 +874,7 @@
         <v>39</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -1123,7 +1123,7 @@
       <c r="IV30"/>
       <c r="IW30"/>
     </row>
-    <row r="31" spans="1:257" ht="54">
+    <row r="31" spans="1:257" ht="40.5">
       <c r="H31">
         <v>2</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>41</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:257" s="5" customFormat="1">
@@ -1471,11 +1471,11 @@
       <c r="I42" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="J42" s="4" t="s">
-        <v>53</v>
+      <c r="J42" t="s">
+        <v>71</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="56.25">
@@ -1483,13 +1483,13 @@
         <v>4</v>
       </c>
       <c r="I43" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="K43" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="2:11" ht="27">
@@ -1497,23 +1497,23 @@
         <v>5</v>
       </c>
       <c r="I44" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="K44" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="D45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="D46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="50" spans="1:257">
       <c r="A50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:257">
@@ -1565,13 +1565,13 @@
         <v>6</v>
       </c>
       <c r="I52" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="J52" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="K52" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="L52"/>
       <c r="M52"/>
@@ -1825,13 +1825,13 @@
         <v>7</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54" spans="1:257" s="5" customFormat="1">
@@ -2098,7 +2098,7 @@
         <v>44</v>
       </c>
       <c r="E55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56" spans="1:257">
@@ -2106,7 +2106,7 @@
         <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:257" ht="18.75">
@@ -2131,7 +2131,7 @@
     </row>
     <row r="60" spans="1:257">
       <c r="B60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
